--- a/GDPpp/GDPp.xlsx
+++ b/GDPpp/GDPp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GDPplus_RATS\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8AB16B9-2C96-496C-8569-4C47B1A7957B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{383892B2-3319-4E52-8C8B-E7D38EF95FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="3225" windowWidth="28020" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="2160" windowWidth="28020" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,13 +381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D243" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D255" sqref="D255"/>
+      <selection pane="bottomRight" activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,13 +438,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.8843200000000007</v>
+        <v>8.90076</v>
       </c>
       <c r="F2">
-        <v>8.8054100000000002</v>
+        <v>8.8047199999999997</v>
       </c>
       <c r="G2">
-        <v>5.0665300000000002</v>
+        <v>5.2024900000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -461,13 +461,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>-2.1535700000000002</v>
+        <v>-2.1666699999999999</v>
       </c>
       <c r="F3">
-        <v>-7.3295899999999997E-2</v>
+        <v>-6.8307999999999994E-2</v>
       </c>
       <c r="G3">
-        <v>1.16736</v>
+        <v>1.24932</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -484,13 +484,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.9460599999999999</v>
+        <v>1.96191</v>
       </c>
       <c r="F4">
-        <v>1.2216899999999999E-2</v>
+        <v>2.2770599999999998E-2</v>
       </c>
       <c r="G4">
-        <v>-0.37025599999999997</v>
+        <v>-0.31134800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>-5.1612</v>
+        <v>-5.1649099999999999</v>
       </c>
       <c r="F5">
-        <v>-2.1682299999999999</v>
+        <v>-2.1804600000000001</v>
       </c>
       <c r="G5">
-        <v>-0.225382</v>
+        <v>-0.24227000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2.6872199999999999</v>
+        <v>2.6881200000000001</v>
       </c>
       <c r="F6">
-        <v>0.80986599999999997</v>
+        <v>0.81192799999999998</v>
       </c>
       <c r="G6">
-        <v>2.4527399999999999</v>
+        <v>2.3207499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.7367699999999999</v>
+        <v>6.7323899999999997</v>
       </c>
       <c r="F7">
-        <v>6.6979199999999999</v>
+        <v>6.6952400000000001</v>
       </c>
       <c r="G7">
-        <v>5.8835499999999996</v>
+        <v>5.8217299999999996</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -576,13 +576,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.5983099999999997</v>
+        <v>7.6162999999999998</v>
       </c>
       <c r="F8">
-        <v>6.3978400000000004</v>
+        <v>6.4081599999999996</v>
       </c>
       <c r="G8">
-        <v>6.7544599999999999</v>
+        <v>6.6331199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.7706499999999998</v>
+        <v>7.7666000000000004</v>
       </c>
       <c r="F9">
-        <v>9.3683300000000003</v>
+        <v>9.3643699999999992</v>
       </c>
       <c r="G9">
-        <v>7.5492499999999998</v>
+        <v>7.5819200000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -622,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.0747299999999997</v>
+        <v>7.0655799999999997</v>
       </c>
       <c r="F10">
-        <v>4.8150300000000001</v>
+        <v>4.8200500000000002</v>
       </c>
       <c r="G10">
-        <v>5.21075</v>
+        <v>5.1724300000000003</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.59287</v>
+        <v>3.6025800000000001</v>
       </c>
       <c r="F11">
-        <v>4.4181699999999999</v>
+        <v>4.42509</v>
       </c>
       <c r="G11">
-        <v>4.51816</v>
+        <v>4.5004299999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.8936799999999998</v>
+        <v>4.8959400000000004</v>
       </c>
       <c r="F12">
-        <v>4.0337199999999998</v>
+        <v>4.0320600000000004</v>
       </c>
       <c r="G12">
-        <v>3.9365100000000002</v>
+        <v>3.8761999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.3060799999999999</v>
+        <v>1.3107599999999999</v>
       </c>
       <c r="F13">
-        <v>4.6588599999999998</v>
+        <v>4.6635900000000001</v>
       </c>
       <c r="G13">
-        <v>4.3333899999999996</v>
+        <v>4.3405500000000004</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4.3451000000000004</v>
+        <v>4.3487099999999996</v>
       </c>
       <c r="F14">
-        <v>3.4424000000000001</v>
+        <v>3.4444400000000002</v>
       </c>
       <c r="G14">
-        <v>4.2574399999999999</v>
+        <v>4.1793399999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.46197</v>
+        <v>4.4645299999999999</v>
       </c>
       <c r="F15">
-        <v>5.7806100000000002</v>
+        <v>5.7832800000000004</v>
       </c>
       <c r="G15">
-        <v>5.5676600000000001</v>
+        <v>5.5624000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.7026800000000009</v>
+        <v>8.7027699999999992</v>
       </c>
       <c r="F16">
-        <v>5.3671899999999999</v>
+        <v>5.3624799999999997</v>
       </c>
       <c r="G16">
-        <v>4.9854399999999996</v>
+        <v>4.9485299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.61564</v>
+        <v>2.6059399999999999</v>
       </c>
       <c r="F17">
-        <v>3.4573299999999998</v>
+        <v>3.4597899999999999</v>
       </c>
       <c r="G17">
-        <v>4.8664500000000004</v>
+        <v>4.7818300000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.3378999999999994</v>
+        <v>8.3563399999999994</v>
       </c>
       <c r="F18">
-        <v>6.6075499999999998</v>
+        <v>6.6175499999999996</v>
       </c>
       <c r="G18">
-        <v>5.7936300000000003</v>
+        <v>5.7342500000000003</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.33575</v>
+        <v>4.3289400000000002</v>
       </c>
       <c r="F19">
-        <v>5.8743999999999996</v>
+        <v>5.8693499999999998</v>
       </c>
       <c r="G19">
-        <v>5.7104499999999998</v>
+        <v>5.6713300000000002</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.2045199999999996</v>
+        <v>6.1996099999999998</v>
       </c>
       <c r="F20">
-        <v>5.6274300000000004</v>
+        <v>5.6335600000000001</v>
       </c>
       <c r="G20">
-        <v>5.1157399999999997</v>
+        <v>5.0657699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -875,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.2314499999999999</v>
+        <v>1.2322299999999999</v>
       </c>
       <c r="F21">
-        <v>3.8284600000000002</v>
+        <v>3.8304800000000001</v>
       </c>
       <c r="G21">
-        <v>5.5034700000000001</v>
+        <v>5.3834099999999996</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.5600699999999996</v>
+        <v>9.5676799999999993</v>
       </c>
       <c r="F22">
-        <v>8.82578</v>
+        <v>8.8250799999999998</v>
       </c>
       <c r="G22">
-        <v>7.0690999999999997</v>
+        <v>7.0563000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.0262200000000004</v>
+        <v>5.0209700000000002</v>
       </c>
       <c r="F23">
-        <v>5.06792</v>
+        <v>5.0677300000000001</v>
       </c>
       <c r="G23">
-        <v>6.2416499999999999</v>
+        <v>6.1789100000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.7941000000000003</v>
+        <v>8.7951099999999993</v>
       </c>
       <c r="F24">
-        <v>5.6066000000000003</v>
+        <v>5.6010099999999996</v>
       </c>
       <c r="G24">
-        <v>6.6840700000000002</v>
+        <v>6.5377599999999996</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.1069999999999993</v>
+        <v>9.1170799999999996</v>
       </c>
       <c r="F25">
-        <v>8.6532800000000005</v>
+        <v>8.6536000000000008</v>
       </c>
       <c r="G25">
-        <v>7.8709800000000003</v>
+        <v>7.80586</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>9.6215399999999995</v>
+        <v>9.6161399999999997</v>
       </c>
       <c r="F26">
-        <v>8.6712699999999998</v>
+        <v>8.6749200000000002</v>
       </c>
       <c r="G26">
-        <v>6.51274</v>
+        <v>6.5597899999999996</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1013,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.3674299999999999</v>
+        <v>1.35867</v>
       </c>
       <c r="F27">
-        <v>2.6614499999999999</v>
+        <v>2.65849</v>
       </c>
       <c r="G27">
-        <v>3.6501999999999999</v>
+        <v>3.6478799999999998</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>3.3758499999999998</v>
+        <v>3.3807900000000002</v>
       </c>
       <c r="F28">
-        <v>2.7431199999999998</v>
+        <v>2.7418499999999999</v>
       </c>
       <c r="G28">
-        <v>3.1055700000000002</v>
+        <v>3.0851700000000002</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3.2675800000000002</v>
+        <v>3.26132</v>
       </c>
       <c r="F29">
-        <v>3.5301100000000001</v>
+        <v>3.5240300000000002</v>
       </c>
       <c r="G29">
-        <v>3.1633599999999999</v>
+        <v>3.1883499999999998</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3.5232399999999999</v>
+        <v>3.5307200000000001</v>
       </c>
       <c r="F30">
-        <v>2.3273199999999998</v>
+        <v>2.3349799999999998</v>
       </c>
       <c r="G30">
-        <v>2.3950100000000001</v>
+        <v>2.3786299999999998</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.246701</v>
+        <v>0.24631600000000001</v>
       </c>
       <c r="F31">
-        <v>2.1900900000000001</v>
+        <v>2.1896100000000001</v>
       </c>
       <c r="G31">
-        <v>2.8004199999999999</v>
+        <v>2.75956</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>3.76092</v>
+        <v>3.7660999999999998</v>
       </c>
       <c r="F32">
-        <v>4.1870500000000002</v>
+        <v>4.1805399999999997</v>
       </c>
       <c r="G32">
-        <v>3.8885100000000001</v>
+        <v>3.8535599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1151,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>3.00773</v>
+        <v>3.0053100000000001</v>
       </c>
       <c r="F33">
-        <v>4.0137499999999999</v>
+        <v>4.0162199999999997</v>
       </c>
       <c r="G33">
-        <v>4.7923400000000003</v>
+        <v>4.7405900000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>8.0758899999999993</v>
+        <v>8.0768900000000006</v>
       </c>
       <c r="F34">
-        <v>5.8906200000000002</v>
+        <v>5.8900600000000001</v>
       </c>
       <c r="G34">
-        <v>5.6124000000000001</v>
+        <v>5.5560099999999997</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>6.6325900000000004</v>
+        <v>6.6200200000000002</v>
       </c>
       <c r="F35">
-        <v>5.9901799999999996</v>
+        <v>5.9927099999999998</v>
       </c>
       <c r="G35">
-        <v>5.2714600000000003</v>
+        <v>5.2309999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>3.0850300000000002</v>
+        <v>3.0918700000000001</v>
       </c>
       <c r="F36">
-        <v>5.3877100000000002</v>
+        <v>5.3865499999999997</v>
       </c>
       <c r="G36">
-        <v>4.4946999999999999</v>
+        <v>4.5203300000000004</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1243,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1.57077</v>
+        <v>1.56393</v>
       </c>
       <c r="F37">
-        <v>2.70397</v>
+        <v>2.6970399999999999</v>
       </c>
       <c r="G37">
-        <v>3.5811999999999999</v>
+        <v>3.57816</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>6.2139899999999999</v>
+        <v>6.2104299999999997</v>
       </c>
       <c r="F38">
-        <v>3.8791899999999999</v>
+        <v>3.8748800000000001</v>
       </c>
       <c r="G38">
-        <v>3.19434</v>
+        <v>3.2037399999999998</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1.20862</v>
+        <v>1.20946</v>
       </c>
       <c r="F39">
-        <v>2.4247899999999998</v>
+        <v>2.4264999999999999</v>
       </c>
       <c r="G39">
-        <v>2.3883800000000002</v>
+        <v>2.4239600000000001</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1312,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2.6316899999999999</v>
+        <v>2.6330200000000001</v>
       </c>
       <c r="F40">
-        <v>2.69231</v>
+        <v>2.68981</v>
       </c>
       <c r="G40">
-        <v>1.38412</v>
+        <v>1.4957</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,13 +1335,13 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>-1.9519299999999999</v>
+        <v>-1.9542999999999999</v>
       </c>
       <c r="F41">
-        <v>-0.83889599999999998</v>
+        <v>-0.83439099999999999</v>
       </c>
       <c r="G41">
-        <v>-0.44125999999999999</v>
+        <v>-0.32147399999999998</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,13 +1358,13 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>-0.59068100000000001</v>
+        <v>-0.59570400000000001</v>
       </c>
       <c r="F42">
-        <v>-2.7061099999999998</v>
+        <v>-2.7105999999999999</v>
       </c>
       <c r="G42">
-        <v>-1.09815</v>
+        <v>-1.09493</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1381,13 +1381,13 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.56642300000000001</v>
+        <v>0.56556300000000004</v>
       </c>
       <c r="F43">
-        <v>7.3159600000000005E-2</v>
+        <v>6.8178600000000006E-2</v>
       </c>
       <c r="G43">
-        <v>0.53316399999999997</v>
+        <v>0.53003800000000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1404,13 +1404,13 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>3.6703399999999999</v>
+        <v>3.6680000000000001</v>
       </c>
       <c r="F44">
-        <v>3.3106499999999999</v>
+        <v>3.3115700000000001</v>
       </c>
       <c r="G44">
-        <v>1.2350300000000001</v>
+        <v>1.35514</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1427,13 +1427,13 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>-4.3096500000000004</v>
+        <v>-4.3090299999999999</v>
       </c>
       <c r="F45">
-        <v>-3.7742200000000001</v>
+        <v>-3.7738999999999998</v>
       </c>
       <c r="G45">
-        <v>0.92040900000000003</v>
+        <v>0.77049000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>10.7159</v>
+        <v>10.716200000000001</v>
       </c>
       <c r="F46">
-        <v>7.8963200000000002</v>
+        <v>7.8993399999999996</v>
       </c>
       <c r="G46">
-        <v>4.7083700000000004</v>
+        <v>4.7522700000000002</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>2.1546400000000001</v>
+        <v>2.1618300000000001</v>
       </c>
       <c r="F47">
-        <v>2.6084100000000001</v>
+        <v>2.6012900000000001</v>
       </c>
       <c r="G47">
-        <v>3.3411400000000002</v>
+        <v>3.3053400000000002</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>3.28037</v>
+        <v>3.2753700000000001</v>
       </c>
       <c r="F48">
-        <v>3.3704200000000002</v>
+        <v>3.37635</v>
       </c>
       <c r="G48">
-        <v>3.52589</v>
+        <v>3.4391400000000001</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.94008899999999995</v>
+        <v>0.93401299999999998</v>
       </c>
       <c r="F49">
-        <v>5.0301400000000003</v>
+        <v>5.0225400000000002</v>
       </c>
       <c r="G49">
-        <v>5.12181</v>
+        <v>5.0897600000000001</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>7.2898500000000004</v>
+        <v>7.2810100000000002</v>
       </c>
       <c r="F50">
-        <v>5.7564900000000003</v>
+        <v>5.7525000000000004</v>
       </c>
       <c r="G50">
-        <v>5.9020799999999998</v>
+        <v>5.8662000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1565,13 +1565,13 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>8.9815199999999997</v>
+        <v>8.9812499999999993</v>
       </c>
       <c r="F51">
-        <v>5.1011300000000004</v>
+        <v>5.0940799999999999</v>
       </c>
       <c r="G51">
-        <v>5.5487900000000003</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>3.7598699999999998</v>
+        <v>3.7597200000000002</v>
       </c>
       <c r="F52">
-        <v>6.4962900000000001</v>
+        <v>6.4942200000000003</v>
       </c>
       <c r="G52">
-        <v>6.7864599999999999</v>
+        <v>6.6318599999999996</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>6.63931</v>
+        <v>6.6377699999999997</v>
       </c>
       <c r="F53">
-        <v>10.163500000000001</v>
+        <v>10.162800000000001</v>
       </c>
       <c r="G53">
-        <v>8.3985400000000006</v>
+        <v>8.4287500000000009</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1634,13 +1634,13 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>9.7815999999999992</v>
+        <v>9.7776899999999998</v>
       </c>
       <c r="F54">
-        <v>7.0742399999999996</v>
+        <v>7.0814899999999996</v>
       </c>
       <c r="G54">
-        <v>5.9781000000000004</v>
+        <v>6.0472599999999996</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4.3332800000000002</v>
+        <v>4.3339499999999997</v>
       </c>
       <c r="F55">
-        <v>2.1866099999999999</v>
+        <v>2.1833800000000001</v>
       </c>
       <c r="G55">
-        <v>2.4803000000000002</v>
+        <v>2.4695100000000001</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1680,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-2.1149800000000001</v>
+        <v>-2.1085799999999999</v>
       </c>
       <c r="F56">
-        <v>1.2864899999999999</v>
+        <v>1.2911699999999999</v>
       </c>
       <c r="G56">
-        <v>1.9034800000000001</v>
+        <v>1.9159299999999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>3.7793999999999999</v>
+        <v>3.7770700000000001</v>
       </c>
       <c r="F57">
-        <v>4.1841799999999996</v>
+        <v>4.1807800000000004</v>
       </c>
       <c r="G57">
-        <v>1.5087900000000001</v>
+        <v>1.69601</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1726,13 +1726,13 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>-3.44842</v>
+        <v>-3.4489200000000002</v>
       </c>
       <c r="F58">
-        <v>-3.1833</v>
+        <v>-3.1823199999999998</v>
       </c>
       <c r="G58">
-        <v>-1.4396599999999999</v>
+        <v>-1.3436300000000001</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1749,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0.94917600000000002</v>
+        <v>0.95011100000000004</v>
       </c>
       <c r="F59">
-        <v>-1.5729299999999999</v>
+        <v>-1.57765</v>
       </c>
       <c r="G59">
-        <v>-1.95705</v>
+        <v>-1.8549</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>-3.8031999999999999</v>
+        <v>-3.8008500000000001</v>
       </c>
       <c r="F60">
-        <v>-2.1755900000000001</v>
+        <v>-2.17286</v>
       </c>
       <c r="G60">
-        <v>-2.4385699999999999</v>
+        <v>-2.2523</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1795,13 +1795,13 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>-1.55566</v>
+        <v>-1.5557099999999999</v>
       </c>
       <c r="F61">
-        <v>-4.7895300000000001</v>
+        <v>-4.7900799999999997</v>
       </c>
       <c r="G61">
-        <v>-3.6035200000000001</v>
+        <v>-3.54589</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1818,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>-4.89811</v>
+        <v>-4.90517</v>
       </c>
       <c r="F62">
-        <v>-4.5783399999999999</v>
+        <v>-4.5768700000000004</v>
       </c>
       <c r="G62">
-        <v>-1.7039800000000001</v>
+        <v>-1.8186199999999999</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>2.8502100000000001</v>
+        <v>2.85032</v>
       </c>
       <c r="F63">
-        <v>3.30341</v>
+        <v>3.3014199999999998</v>
       </c>
       <c r="G63">
-        <v>3.3062</v>
+        <v>3.1968899999999998</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>6.7882999999999996</v>
+        <v>6.78918</v>
       </c>
       <c r="F64">
-        <v>8.0491899999999994</v>
+        <v>8.0539199999999997</v>
       </c>
       <c r="G64">
-        <v>6.08887</v>
+        <v>6.1167899999999999</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1887,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>5.3516700000000004</v>
+        <v>5.3521700000000001</v>
       </c>
       <c r="F65">
-        <v>4.0171599999999996</v>
+        <v>4.0126200000000001</v>
       </c>
       <c r="G65">
-        <v>5.4806499999999998</v>
+        <v>5.3831100000000003</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>8.8945900000000009</v>
+        <v>8.8970000000000002</v>
       </c>
       <c r="F66">
-        <v>8.2171400000000006</v>
+        <v>8.2197499999999994</v>
       </c>
       <c r="G66">
-        <v>5.8859700000000004</v>
+        <v>5.9476100000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1933,13 +1933,13 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>2.9214500000000001</v>
+        <v>2.9243199999999998</v>
       </c>
       <c r="F67">
-        <v>2.5021</v>
+        <v>2.5038499999999999</v>
       </c>
       <c r="G67">
-        <v>3.3182900000000002</v>
+        <v>3.3040799999999999</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1956,13 +1956,13 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>2.1905700000000001</v>
+        <v>2.18554</v>
       </c>
       <c r="F68">
-        <v>3.03477</v>
+        <v>3.0307200000000001</v>
       </c>
       <c r="G68">
-        <v>3.0065499999999998</v>
+        <v>3.0285700000000002</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>2.89114</v>
+        <v>2.8811399999999998</v>
       </c>
       <c r="F69">
-        <v>1.25604</v>
+        <v>1.2461100000000001</v>
       </c>
       <c r="G69">
-        <v>2.9199700000000002</v>
+        <v>2.81697</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>4.6959</v>
+        <v>4.7153999999999998</v>
       </c>
       <c r="F70">
-        <v>4.4120100000000004</v>
+        <v>4.4305000000000003</v>
       </c>
       <c r="G70">
-        <v>5.1806999999999999</v>
+        <v>5.0320799999999997</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2025,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>7.7038799999999998</v>
+        <v>7.6954599999999997</v>
       </c>
       <c r="F71">
-        <v>9.2739999999999991</v>
+        <v>9.2693899999999996</v>
       </c>
       <c r="G71">
-        <v>7.3258799999999997</v>
+        <v>7.3056200000000002</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2048,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>7.1530399999999998</v>
+        <v>7.1489000000000003</v>
       </c>
       <c r="F72">
-        <v>7.2955800000000002</v>
+        <v>7.2865500000000001</v>
       </c>
       <c r="G72">
-        <v>5.6084300000000002</v>
+        <v>5.6355300000000002</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>6.3354800000000001E-3</v>
+        <v>5.9044500000000003E-3</v>
       </c>
       <c r="F73">
-        <v>2.2965800000000001</v>
+        <v>2.2949299999999999</v>
       </c>
       <c r="G73">
-        <v>3.5440700000000001</v>
+        <v>3.49458</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2094,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1.2714000000000001</v>
+        <v>1.27921</v>
       </c>
       <c r="F74">
-        <v>2.3846599999999998</v>
+        <v>2.3938199999999998</v>
       </c>
       <c r="G74">
-        <v>5.3611800000000001</v>
+        <v>5.1959099999999996</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2117,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>15.1686</v>
+        <v>15.164400000000001</v>
       </c>
       <c r="F75">
-        <v>11.8742</v>
+        <v>11.873200000000001</v>
       </c>
       <c r="G75">
-        <v>7.8257000000000003</v>
+        <v>7.91113</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>4.0050499999999998</v>
+        <v>4.00319</v>
       </c>
       <c r="F76">
-        <v>2.8990499999999999</v>
+        <v>2.8955899999999999</v>
       </c>
       <c r="G76">
-        <v>4.3097700000000003</v>
+        <v>4.2913500000000004</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>5.3398300000000001</v>
+        <v>5.3442999999999996</v>
       </c>
       <c r="F77">
-        <v>3.8511099999999998</v>
+        <v>3.8547199999999999</v>
       </c>
       <c r="G77">
-        <v>3.2312799999999999</v>
+        <v>3.2448399999999999</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2186,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.71808499999999997</v>
+        <v>0.71347099999999997</v>
       </c>
       <c r="F78">
-        <v>3.1502400000000002</v>
+        <v>3.16553</v>
       </c>
       <c r="G78">
-        <v>2.06847</v>
+        <v>2.2246100000000002</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.42667899999999997</v>
+        <v>0.43078499999999997</v>
       </c>
       <c r="F79">
-        <v>-1.9930699999999999</v>
+        <v>-2.0140699999999998</v>
       </c>
       <c r="G79">
-        <v>9.2756899999999996E-3</v>
+        <v>2.3239200000000002E-2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>2.9623200000000001</v>
+        <v>2.9587400000000001</v>
       </c>
       <c r="F80">
-        <v>0.487178</v>
+        <v>0.48766500000000002</v>
       </c>
       <c r="G80">
-        <v>0.50208299999999995</v>
+        <v>0.52821600000000002</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2255,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.998224</v>
+        <v>0.99597800000000003</v>
       </c>
       <c r="F81">
-        <v>1.5597799999999999</v>
+        <v>1.5822099999999999</v>
       </c>
       <c r="G81">
-        <v>0.57887200000000005</v>
+        <v>0.71698799999999996</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2278,13 +2278,13 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1.2530600000000001</v>
+        <v>1.26057</v>
       </c>
       <c r="F82">
-        <v>-0.33544000000000002</v>
+        <v>-0.30700699999999997</v>
       </c>
       <c r="G82">
-        <v>-1.58687</v>
+        <v>-1.4332199999999999</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2301,13 +2301,13 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>-8.3293300000000006</v>
+        <v>-8.3295600000000007</v>
       </c>
       <c r="F83">
-        <v>-6.5248400000000002</v>
+        <v>-6.53057</v>
       </c>
       <c r="G83">
-        <v>-2.5435099999999999</v>
+        <v>-2.6950799999999999</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2324,13 +2324,13 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>-0.47184999999999999</v>
+        <v>-0.478709</v>
       </c>
       <c r="F84">
-        <v>2.9916800000000001</v>
+        <v>2.9519600000000001</v>
       </c>
       <c r="G84">
-        <v>3.0782500000000002</v>
+        <v>2.9555199999999999</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2347,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>7.3897399999999998</v>
+        <v>7.3946399999999999</v>
       </c>
       <c r="F85">
-        <v>9.19773</v>
+        <v>9.1956799999999994</v>
       </c>
       <c r="G85">
-        <v>6.1635999999999997</v>
+        <v>6.2986399999999998</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,13 +2370,13 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>7.7623800000000003</v>
+        <v>7.7594500000000002</v>
       </c>
       <c r="F86">
-        <v>2.8670200000000001</v>
+        <v>2.9022399999999999</v>
       </c>
       <c r="G86">
-        <v>2.66337</v>
+        <v>2.6976</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>-2.9744199999999998</v>
+        <v>-2.9765899999999998</v>
       </c>
       <c r="F87">
-        <v>0.164216</v>
+        <v>0.18581500000000001</v>
       </c>
       <c r="G87">
-        <v>1.64276</v>
+        <v>1.6270500000000001</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2416,13 +2416,13 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>4.75997</v>
+        <v>4.7637200000000002</v>
       </c>
       <c r="F88">
-        <v>5.6997</v>
+        <v>5.7232599999999998</v>
       </c>
       <c r="G88">
-        <v>1.7611699999999999</v>
+        <v>1.9943900000000001</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,13 +2439,13 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-4.3833399999999996</v>
+        <v>-4.3803099999999997</v>
       </c>
       <c r="F89">
-        <v>-4.1196400000000004</v>
+        <v>-4.1853999999999996</v>
       </c>
       <c r="G89">
-        <v>-2.5463300000000002</v>
+        <v>-2.51851</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2462,13 +2462,13 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-6.2632199999999996</v>
+        <v>-6.2667900000000003</v>
       </c>
       <c r="F90">
-        <v>-3.1781600000000001</v>
+        <v>-3.1803900000000001</v>
       </c>
       <c r="G90">
-        <v>-1.7474799999999999</v>
+        <v>-1.7303200000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,13 +2485,13 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1.8254600000000001</v>
+        <v>1.8216000000000001</v>
       </c>
       <c r="F91">
-        <v>1.4456100000000001</v>
+        <v>1.45672</v>
       </c>
       <c r="G91">
-        <v>-4.9874700000000001E-2</v>
+        <v>7.2342100000000006E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2508,13 +2508,13 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.53729</v>
+        <v>-1.53112</v>
       </c>
       <c r="F92">
-        <v>-1.55749</v>
+        <v>-1.55548</v>
       </c>
       <c r="G92">
-        <v>-0.56350599999999995</v>
+        <v>-0.50350099999999998</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,13 +2531,13 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0.164573</v>
+        <v>0.15885299999999999</v>
       </c>
       <c r="F93">
-        <v>-1.75871</v>
+        <v>-1.7434000000000001</v>
       </c>
       <c r="G93">
-        <v>0.73724299999999998</v>
+        <v>0.64044299999999998</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2554,13 +2554,13 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>5.2366900000000003</v>
+        <v>5.2394999999999996</v>
       </c>
       <c r="F94">
-        <v>4.2828999999999997</v>
+        <v>4.2543699999999998</v>
       </c>
       <c r="G94">
-        <v>4.5157699999999998</v>
+        <v>4.4275900000000004</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2577,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>8.9981600000000004</v>
+        <v>9.0005500000000005</v>
       </c>
       <c r="F95">
-        <v>6.6619799999999998</v>
+        <v>6.6574</v>
       </c>
       <c r="G95">
-        <v>6.3232699999999999</v>
+        <v>6.2576599999999996</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>7.91716</v>
+        <v>7.9122399999999997</v>
       </c>
       <c r="F96">
-        <v>5.50976</v>
+        <v>5.5182099999999998</v>
       </c>
       <c r="G96">
-        <v>6.7036499999999997</v>
+        <v>6.5225999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2623,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>8.2593999999999994</v>
+        <v>8.2615700000000007</v>
       </c>
       <c r="F97">
-        <v>9.2136099999999992</v>
+        <v>9.1983300000000003</v>
       </c>
       <c r="G97">
-        <v>8.4500299999999999</v>
+        <v>8.2996300000000005</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>7.7452399999999999</v>
+        <v>7.7410699999999997</v>
       </c>
       <c r="F98">
-        <v>10.764900000000001</v>
+        <v>10.7719</v>
       </c>
       <c r="G98">
-        <v>8.7522900000000003</v>
+        <v>8.7640799999999999</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>6.8479099999999997</v>
+        <v>6.8558300000000001</v>
       </c>
       <c r="F99">
-        <v>6.4756400000000003</v>
+        <v>6.4741799999999996</v>
       </c>
       <c r="G99">
-        <v>6.2115200000000002</v>
+        <v>6.20242</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>3.8410299999999999</v>
+        <v>3.8378000000000001</v>
       </c>
       <c r="F100">
-        <v>4.1964899999999998</v>
+        <v>4.2112699999999998</v>
       </c>
       <c r="G100">
-        <v>4.5224500000000001</v>
+        <v>4.4949899999999996</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>3.26837</v>
+        <v>3.2680400000000001</v>
       </c>
       <c r="F101">
-        <v>4.3714000000000004</v>
+        <v>4.3758400000000002</v>
       </c>
       <c r="G101">
-        <v>4.1524999999999999</v>
+        <v>4.1601999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>3.8605499999999999</v>
+        <v>3.8562599999999998</v>
       </c>
       <c r="F102">
-        <v>3.38158</v>
+        <v>3.3492799999999998</v>
       </c>
       <c r="G102">
-        <v>3.6000299999999998</v>
+        <v>3.5853100000000002</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>3.5047100000000002</v>
+        <v>3.5080499999999999</v>
       </c>
       <c r="F103">
-        <v>2.8415400000000002</v>
+        <v>2.86843</v>
       </c>
       <c r="G103">
-        <v>3.6228500000000001</v>
+        <v>3.5994100000000002</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2784,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>6.0615600000000001</v>
+        <v>6.0613599999999996</v>
       </c>
       <c r="F104">
-        <v>4.8196700000000003</v>
+        <v>4.8187600000000002</v>
       </c>
       <c r="G104">
-        <v>3.9149600000000002</v>
+        <v>3.9471099999999999</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>2.9620199999999999</v>
+        <v>2.96428</v>
       </c>
       <c r="F105">
-        <v>2.2348300000000001</v>
+        <v>2.24248</v>
       </c>
       <c r="G105">
-        <v>2.97146</v>
+        <v>2.9522900000000001</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,13 +2830,13 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>3.7161</v>
+        <v>3.7158699999999998</v>
       </c>
       <c r="F106">
-        <v>3.9297200000000001</v>
+        <v>3.9326500000000002</v>
       </c>
       <c r="G106">
-        <v>3.0528400000000002</v>
+        <v>3.1086399999999998</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -2853,13 +2853,13 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>1.8012300000000001</v>
+        <v>1.79728</v>
       </c>
       <c r="F107">
-        <v>1.11927</v>
+        <v>1.10795</v>
       </c>
       <c r="G107">
-        <v>2.1667399999999999</v>
+        <v>2.15062</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>3.8057300000000001</v>
+        <v>3.8095300000000001</v>
       </c>
       <c r="F108">
-        <v>2.5007999999999999</v>
+        <v>2.49668</v>
       </c>
       <c r="G108">
-        <v>2.5802499999999999</v>
+        <v>2.5392899999999998</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -2899,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>2.1420599999999999</v>
+        <v>2.1402000000000001</v>
       </c>
       <c r="F109">
-        <v>3.14703</v>
+        <v>3.1344699999999999</v>
       </c>
       <c r="G109">
-        <v>3.2669000000000001</v>
+        <v>3.2066400000000002</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>2.9721000000000002</v>
+        <v>2.9575800000000001</v>
       </c>
       <c r="F110">
-        <v>4.1174900000000001</v>
+        <v>4.1233700000000004</v>
       </c>
       <c r="G110">
-        <v>4.2751200000000003</v>
+        <v>4.1883999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -2945,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>4.2896000000000001</v>
+        <v>4.2900999999999998</v>
       </c>
       <c r="F111">
-        <v>6.3293400000000002</v>
+        <v>6.3243999999999998</v>
       </c>
       <c r="G111">
-        <v>5.4015300000000002</v>
+        <v>5.3541499999999997</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>3.4578899999999999</v>
+        <v>3.4507699999999999</v>
       </c>
       <c r="F112">
-        <v>5.77949</v>
+        <v>5.7703600000000002</v>
       </c>
       <c r="G112">
-        <v>5.5874300000000003</v>
+        <v>5.5680699999999996</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>6.8089500000000003</v>
+        <v>6.8092100000000002</v>
       </c>
       <c r="F113">
-        <v>5.3121400000000003</v>
+        <v>5.3121600000000004</v>
       </c>
       <c r="G113">
-        <v>4.89283</v>
+        <v>4.8429200000000003</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3014,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>2.0624400000000001</v>
+        <v>2.0634899999999998</v>
       </c>
       <c r="F114">
-        <v>4.74749</v>
+        <v>4.7470100000000004</v>
       </c>
       <c r="G114">
-        <v>4.6982600000000003</v>
+        <v>4.6863400000000004</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>5.2208600000000001</v>
+        <v>5.2222299999999997</v>
       </c>
       <c r="F115">
-        <v>4.5784599999999998</v>
+        <v>4.5772599999999999</v>
       </c>
       <c r="G115">
-        <v>4.2454799999999997</v>
+        <v>4.2240099999999998</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3060,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>2.3356499999999998</v>
+        <v>2.3365300000000002</v>
       </c>
       <c r="F116">
-        <v>3.6020400000000001</v>
+        <v>3.5926399999999998</v>
       </c>
       <c r="G116">
-        <v>4.1003699999999998</v>
+        <v>4.0667099999999996</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>5.2968500000000001</v>
+        <v>5.29467</v>
       </c>
       <c r="F117">
-        <v>5.4138999999999999</v>
+        <v>5.4407300000000003</v>
       </c>
       <c r="G117">
-        <v>4.2887300000000002</v>
+        <v>4.3749399999999996</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>4.04352</v>
+        <v>4.0442400000000003</v>
       </c>
       <c r="F118">
-        <v>2.4440599999999999</v>
+        <v>2.43425</v>
       </c>
       <c r="G118">
-        <v>2.5009399999999999</v>
+        <v>2.59565</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3129,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>3.0409099999999998</v>
+        <v>3.0421200000000002</v>
       </c>
       <c r="F119">
-        <v>-0.70119399999999998</v>
+        <v>-0.71514500000000003</v>
       </c>
       <c r="G119">
-        <v>0.89263300000000001</v>
+        <v>0.87537799999999999</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>2.9530699999999999</v>
+        <v>2.9506100000000002</v>
       </c>
       <c r="F120">
-        <v>1.6517900000000001</v>
+        <v>1.6544000000000001</v>
       </c>
       <c r="G120">
-        <v>1.36409</v>
+        <v>1.39473</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0.78669599999999995</v>
+        <v>0.78960600000000003</v>
       </c>
       <c r="F121">
-        <v>0.44372</v>
+        <v>0.44220199999999998</v>
       </c>
       <c r="G121">
-        <v>1.5856399999999999</v>
+        <v>1.5549999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>4.3506499999999999</v>
+        <v>4.3470399999999998</v>
       </c>
       <c r="F122">
-        <v>3.8062399999999998</v>
+        <v>3.7999100000000001</v>
       </c>
       <c r="G122">
-        <v>2.5400200000000002</v>
+        <v>2.5885899999999999</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3221,13 +3221,13 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1.4454400000000001</v>
+        <v>1.45048</v>
       </c>
       <c r="F123">
-        <v>2.21631</v>
+        <v>2.2192099999999999</v>
       </c>
       <c r="G123">
-        <v>1.43648</v>
+        <v>1.5440400000000001</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3244,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0.26804699999999998</v>
+        <v>0.26568199999999997</v>
       </c>
       <c r="F124">
-        <v>-0.29422300000000001</v>
+        <v>-0.282275</v>
       </c>
       <c r="G124">
-        <v>-0.49179099999999998</v>
+        <v>-0.40287400000000001</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3267,13 +3267,13 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>-3.6574800000000001</v>
+        <v>-3.6596899999999999</v>
       </c>
       <c r="F125">
-        <v>-1.86555</v>
+        <v>-1.8558699999999999</v>
       </c>
       <c r="G125">
-        <v>-1.1599299999999999</v>
+        <v>-1.10375</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3290,13 +3290,13 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>-1.8758600000000001</v>
+        <v>-1.8766400000000001</v>
       </c>
       <c r="F126">
-        <v>-0.83145199999999997</v>
+        <v>-0.83166399999999996</v>
       </c>
       <c r="G126">
-        <v>-3.4874799999999997E-2</v>
+        <v>3.2248899999999998E-3</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>3.1058699999999999</v>
+        <v>3.1069100000000001</v>
       </c>
       <c r="F127">
-        <v>1.1661600000000001</v>
+        <v>1.1678999999999999</v>
       </c>
       <c r="G127">
-        <v>1.07595</v>
+        <v>1.10412</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3336,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>2.0146899999999999</v>
+        <v>2.01694</v>
       </c>
       <c r="F128">
-        <v>1.11511</v>
+        <v>1.08778</v>
       </c>
       <c r="G128">
-        <v>1.47472</v>
+        <v>1.45181</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>1.3940900000000001</v>
+        <v>1.3904099999999999</v>
       </c>
       <c r="F129">
-        <v>1.38845</v>
+        <v>1.3988400000000001</v>
       </c>
       <c r="G129">
-        <v>2.6313599999999999</v>
+        <v>2.5291199999999998</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3382,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>4.7575399999999997</v>
+        <v>4.7603499999999999</v>
       </c>
       <c r="F130">
-        <v>6.7986899999999997</v>
+        <v>6.7991000000000001</v>
       </c>
       <c r="G130">
-        <v>4.8291300000000001</v>
+        <v>4.8967200000000002</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>4.3160699999999999</v>
+        <v>4.3141100000000003</v>
       </c>
       <c r="F131">
-        <v>3.3228200000000001</v>
+        <v>3.3292299999999999</v>
       </c>
       <c r="G131">
-        <v>3.4568599999999998</v>
+        <v>3.5184299999999999</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3428,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>3.93336</v>
+        <v>3.9352</v>
       </c>
       <c r="F132">
-        <v>1.2652099999999999</v>
+        <v>1.28095</v>
       </c>
       <c r="G132">
-        <v>2.35873</v>
+        <v>2.3448500000000001</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3451,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>4.1512099999999998</v>
+        <v>4.1469699999999996</v>
       </c>
       <c r="F133">
-        <v>3.7468400000000002</v>
+        <v>3.7486999999999999</v>
       </c>
       <c r="G133">
-        <v>2.4037999999999999</v>
+        <v>2.50359</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0.66605800000000004</v>
+        <v>0.66998199999999997</v>
       </c>
       <c r="F134">
-        <v>-1.3910400000000001</v>
+        <v>-1.3895</v>
       </c>
       <c r="G134">
-        <v>0.95246900000000001</v>
+        <v>0.84852399999999994</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>2.3225099999999999</v>
+        <v>2.3192200000000001</v>
       </c>
       <c r="F135">
-        <v>4.78993</v>
+        <v>4.7846399999999996</v>
       </c>
       <c r="G135">
-        <v>3.15272</v>
+        <v>3.2035399999999998</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1.9037599999999999</v>
+        <v>1.9056200000000001</v>
       </c>
       <c r="F136">
-        <v>0.80306</v>
+        <v>0.790628</v>
       </c>
       <c r="G136">
-        <v>2.9276200000000001</v>
+        <v>2.7858800000000001</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3543,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>5.4040600000000003</v>
+        <v>5.40463</v>
       </c>
       <c r="F137">
-        <v>7.6889799999999999</v>
+        <v>7.7049200000000004</v>
       </c>
       <c r="G137">
-        <v>5.2934200000000002</v>
+        <v>5.3663100000000004</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3566,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>3.85955</v>
+        <v>3.8616799999999998</v>
       </c>
       <c r="F138">
-        <v>2.2095400000000001</v>
+        <v>2.20167</v>
       </c>
       <c r="G138">
-        <v>3.85189</v>
+        <v>3.7548599999999999</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3589,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>5.3856900000000003</v>
+        <v>5.3863200000000004</v>
       </c>
       <c r="F139">
-        <v>6.1652399999999998</v>
+        <v>6.15402</v>
       </c>
       <c r="G139">
-        <v>4.74031</v>
+        <v>4.7398300000000004</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3612,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>2.3312200000000001</v>
+        <v>2.3309799999999998</v>
       </c>
       <c r="F140">
-        <v>3.6979000000000002</v>
+        <v>3.7357900000000002</v>
       </c>
       <c r="G140">
-        <v>4.0162100000000001</v>
+        <v>4.0159200000000004</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>4.5574000000000003</v>
+        <v>4.5542400000000001</v>
       </c>
       <c r="F141">
-        <v>4.7528499999999996</v>
+        <v>4.75915</v>
       </c>
       <c r="G141">
-        <v>3.64296</v>
+        <v>3.6929099999999999</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3658,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>1.4166799999999999</v>
+        <v>1.4194800000000001</v>
       </c>
       <c r="F142">
-        <v>1.6720200000000001</v>
+        <v>1.6516999999999999</v>
       </c>
       <c r="G142">
-        <v>2.3035700000000001</v>
+        <v>2.2751800000000002</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3681,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>1.18872</v>
+        <v>1.1890400000000001</v>
       </c>
       <c r="F143">
-        <v>2.3245499999999999</v>
+        <v>2.3309700000000002</v>
       </c>
       <c r="G143">
-        <v>2.8108599999999999</v>
+        <v>2.7595999999999998</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3704,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>3.3877100000000002</v>
+        <v>3.3889</v>
       </c>
       <c r="F144">
-        <v>4.9004700000000003</v>
+        <v>4.90029</v>
       </c>
       <c r="G144">
-        <v>3.82789</v>
+        <v>3.85243</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3727,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>2.7082799999999998</v>
+        <v>2.7086399999999999</v>
       </c>
       <c r="F145">
-        <v>2.5990199999999999</v>
+        <v>2.5977899999999998</v>
       </c>
       <c r="G145">
-        <v>3.3679100000000002</v>
+        <v>3.3072699999999999</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3750,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>2.9857900000000002</v>
+        <v>2.9832700000000001</v>
       </c>
       <c r="F146">
-        <v>4.4345999999999997</v>
+        <v>4.4392199999999997</v>
       </c>
       <c r="G146">
-        <v>4.5550100000000002</v>
+        <v>4.5189899999999996</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3773,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>6.6149300000000002</v>
+        <v>6.6160100000000002</v>
       </c>
       <c r="F147">
-        <v>5.7774900000000002</v>
+        <v>5.7932600000000001</v>
       </c>
       <c r="G147">
-        <v>4.8936599999999997</v>
+        <v>4.8960299999999997</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>3.5714000000000001</v>
+        <v>3.5747300000000002</v>
       </c>
       <c r="F148">
-        <v>3.67388</v>
+        <v>3.6581800000000002</v>
       </c>
       <c r="G148">
-        <v>4.1827899999999998</v>
+        <v>4.1204499999999999</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>4.1320800000000002</v>
+        <v>4.1316499999999996</v>
       </c>
       <c r="F149">
-        <v>4.9123799999999997</v>
+        <v>4.9141500000000002</v>
       </c>
       <c r="G149">
-        <v>4.4708300000000003</v>
+        <v>4.4302099999999998</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -3842,13 +3842,13 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>2.5765400000000001</v>
+        <v>2.5735700000000001</v>
       </c>
       <c r="F150">
-        <v>4.3953300000000004</v>
+        <v>4.3786399999999999</v>
       </c>
       <c r="G150">
-        <v>4.8098000000000001</v>
+        <v>4.7635100000000001</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -3865,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>6.5909899999999997</v>
+        <v>6.6044099999999997</v>
       </c>
       <c r="F151">
-        <v>5.1399800000000004</v>
+        <v>5.14161</v>
       </c>
       <c r="G151">
-        <v>5.15794</v>
+        <v>5.0771699999999997</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -3888,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>4.9727499999999996</v>
+        <v>4.9637200000000004</v>
       </c>
       <c r="F152">
-        <v>6.3420899999999998</v>
+        <v>6.3924700000000003</v>
       </c>
       <c r="G152">
-        <v>5.4673499999999997</v>
+        <v>5.4489799999999997</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -3911,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>3.41994</v>
+        <v>3.4014199999999999</v>
       </c>
       <c r="F153">
-        <v>5.3834099999999996</v>
+        <v>5.3895999999999997</v>
       </c>
       <c r="G153">
-        <v>5.0316700000000001</v>
+        <v>5.00528</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -3934,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>3.9792200000000002</v>
+        <v>3.9935100000000001</v>
       </c>
       <c r="F154">
-        <v>4.1521600000000003</v>
+        <v>3.9048400000000001</v>
       </c>
       <c r="G154">
-        <v>4.5513399999999997</v>
+        <v>4.3835699999999997</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>3.6857000000000002</v>
+        <v>3.6858200000000001</v>
       </c>
       <c r="F155">
-        <v>5.5994999999999999</v>
+        <v>5.8392900000000001</v>
       </c>
       <c r="G155">
-        <v>5.2076099999999999</v>
+        <v>5.2835799999999997</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -3980,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>4.9799600000000002</v>
+        <v>5.0070199999999998</v>
       </c>
       <c r="F156">
-        <v>5.4403300000000003</v>
+        <v>5.5112699999999997</v>
       </c>
       <c r="G156">
-        <v>5.2048899999999998</v>
+        <v>5.2658100000000001</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4003,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>6.4115799999999998</v>
+        <v>6.3849799999999997</v>
       </c>
       <c r="F157">
-        <v>3.82307</v>
+        <v>3.80776</v>
       </c>
       <c r="G157">
-        <v>4.3143099999999999</v>
+        <v>4.2458799999999997</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4026,13 +4026,13 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>3.7595100000000001</v>
+        <v>3.7393700000000001</v>
       </c>
       <c r="F158">
-        <v>5.54061</v>
+        <v>5.5491599999999996</v>
       </c>
       <c r="G158">
-        <v>4.5000600000000004</v>
+        <v>4.5399200000000004</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4049,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>3.32517</v>
+        <v>3.3235899999999998</v>
       </c>
       <c r="F159">
-        <v>2.0039899999999999</v>
+        <v>1.92075</v>
       </c>
       <c r="G159">
-        <v>3.4601600000000001</v>
+        <v>3.3530000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4072,13 +4072,13 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>5.2583900000000003</v>
+        <v>5.2709599999999996</v>
       </c>
       <c r="F160">
-        <v>3.99072</v>
+        <v>3.9080599999999999</v>
       </c>
       <c r="G160">
-        <v>4.4516299999999998</v>
+        <v>4.30471</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>6.5175900000000002</v>
+        <v>6.5091400000000004</v>
       </c>
       <c r="F161">
-        <v>5.87514</v>
+        <v>5.8029900000000003</v>
       </c>
       <c r="G161">
-        <v>5.1945800000000002</v>
+        <v>5.0397800000000004</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>1.4560299999999999</v>
+        <v>1.44661</v>
       </c>
       <c r="F162">
-        <v>7.8387200000000004</v>
+        <v>7.8802899999999996</v>
       </c>
       <c r="G162">
-        <v>6.0423499999999999</v>
+        <v>6.17171</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>7.2138600000000004</v>
+        <v>7.2207299999999996</v>
       </c>
       <c r="F163">
-        <v>2.6467000000000001</v>
+        <v>2.6565599999999998</v>
       </c>
       <c r="G163">
-        <v>3.2033299999999998</v>
+        <v>3.1881499999999998</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4164,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0.40068900000000002</v>
+        <v>0.40740999999999999</v>
       </c>
       <c r="F164">
-        <v>3.55389</v>
+        <v>3.64899</v>
       </c>
       <c r="G164">
-        <v>2.7114099999999999</v>
+        <v>2.8591799999999998</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4187,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>2.37161</v>
+        <v>2.3823799999999999</v>
       </c>
       <c r="F165">
-        <v>-5.9973199999999997E-2</v>
+        <v>9.2196500000000001E-2</v>
       </c>
       <c r="G165">
-        <v>1.0558799999999999</v>
+        <v>1.0309600000000001</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4210,13 +4210,13 @@
         <v>1</v>
       </c>
       <c r="E166">
-        <v>-1.2990200000000001</v>
+        <v>-1.3149</v>
       </c>
       <c r="F166">
-        <v>4.5087999999999999</v>
+        <v>4.1021200000000002</v>
       </c>
       <c r="G166">
-        <v>2.36971</v>
+        <v>2.40734</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4233,13 +4233,13 @@
         <v>1</v>
       </c>
       <c r="E167">
-        <v>2.4765600000000001</v>
+        <v>2.49098</v>
       </c>
       <c r="F167">
-        <v>-0.74794700000000003</v>
+        <v>-0.43157400000000001</v>
       </c>
       <c r="G167">
-        <v>-0.25962800000000003</v>
+        <v>-2.2475599999999998E-2</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4256,13 +4256,13 @@
         <v>1</v>
       </c>
       <c r="E168">
-        <v>-1.60606</v>
+        <v>-1.60639</v>
       </c>
       <c r="F168">
-        <v>-2.2194099999999999</v>
+        <v>-2.0702699999999998</v>
       </c>
       <c r="G168">
-        <v>-1.10521</v>
+        <v>-0.92547000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4279,13 +4279,13 @@
         <v>1</v>
       </c>
       <c r="E169">
-        <v>1.1095600000000001</v>
+        <v>1.09877</v>
       </c>
       <c r="F169">
-        <v>-3.2243599999999999</v>
+        <v>-3.2799</v>
       </c>
       <c r="G169">
-        <v>-0.52480800000000005</v>
+        <v>-0.66960900000000001</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4302,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>3.2983899999999999</v>
+        <v>3.33121</v>
       </c>
       <c r="F170">
-        <v>4.8789100000000003</v>
+        <v>4.7850999999999999</v>
       </c>
       <c r="G170">
-        <v>2.9929600000000001</v>
+        <v>2.9703300000000001</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4325,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>2.45607</v>
+        <v>2.4416000000000002</v>
       </c>
       <c r="F171">
-        <v>3.7251699999999999</v>
+        <v>3.7631199999999998</v>
       </c>
       <c r="G171">
-        <v>2.8418100000000002</v>
+        <v>2.9224700000000001</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4348,13 +4348,13 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>1.6083499999999999</v>
+        <v>1.62317</v>
       </c>
       <c r="F172">
-        <v>1.11846</v>
+        <v>1.1571199999999999</v>
       </c>
       <c r="G172">
-        <v>1.70469</v>
+        <v>1.7102599999999999</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>0.52287399999999995</v>
+        <v>0.49557400000000001</v>
       </c>
       <c r="F173">
-        <v>2.9197099999999998</v>
+        <v>2.919</v>
       </c>
       <c r="G173">
-        <v>2.19069</v>
+        <v>2.28607</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4394,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>2.0611899999999999</v>
+        <v>2.09937</v>
       </c>
       <c r="F174">
-        <v>-0.215978</v>
+        <v>-0.22294700000000001</v>
       </c>
       <c r="G174">
-        <v>1.57836</v>
+        <v>1.5150699999999999</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4417,13 +4417,13 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>3.55844</v>
+        <v>3.5289100000000002</v>
       </c>
       <c r="F175">
-        <v>3.2854000000000001</v>
+        <v>3.2341199999999999</v>
       </c>
       <c r="G175">
-        <v>3.4327000000000001</v>
+        <v>3.3917999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4440,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>6.6140600000000003</v>
+        <v>6.5976699999999999</v>
       </c>
       <c r="F176">
-        <v>4.2855100000000004</v>
+        <v>4.2878999999999996</v>
       </c>
       <c r="G176">
-        <v>3.9367399999999999</v>
+        <v>3.9329999999999998</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4463,13 +4463,13 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>4.5891099999999998</v>
+        <v>4.6167199999999999</v>
       </c>
       <c r="F177">
-        <v>3.3490700000000002</v>
+        <v>3.3726500000000001</v>
       </c>
       <c r="G177">
-        <v>3.4126099999999999</v>
+        <v>3.3797000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4486,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>2.2834099999999999</v>
+        <v>2.2596799999999999</v>
       </c>
       <c r="F178">
-        <v>3.3776000000000002</v>
+        <v>3.2998400000000001</v>
       </c>
       <c r="G178">
-        <v>3.5417700000000001</v>
+        <v>3.4604400000000002</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4509,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>3.1035400000000002</v>
+        <v>3.0886399999999998</v>
       </c>
       <c r="F179">
-        <v>4.5069100000000004</v>
+        <v>4.51274</v>
       </c>
       <c r="G179">
-        <v>4.1443599999999998</v>
+        <v>4.1324199999999998</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4532,13 +4532,13 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>3.7469700000000001</v>
+        <v>3.7747000000000002</v>
       </c>
       <c r="F180">
-        <v>4.8283800000000001</v>
+        <v>4.8933499999999999</v>
       </c>
       <c r="G180">
-        <v>4.1587800000000001</v>
+        <v>4.2435999999999998</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4555,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>4.0683800000000003</v>
+        <v>4.0611600000000001</v>
       </c>
       <c r="F181">
-        <v>2.1626599999999998</v>
+        <v>2.1937199999999999</v>
       </c>
       <c r="G181">
-        <v>3.1048399999999998</v>
+        <v>3.0935199999999998</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4578,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>4.4176500000000001</v>
+        <v>4.4118300000000001</v>
       </c>
       <c r="F182">
-        <v>3.46922</v>
+        <v>3.4451800000000001</v>
       </c>
       <c r="G182">
-        <v>3.2599200000000002</v>
+        <v>3.2157300000000002</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4601,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>1.94275</v>
+        <v>1.96679</v>
       </c>
       <c r="F183">
-        <v>3.8077800000000002</v>
+        <v>3.8090700000000002</v>
       </c>
       <c r="G183">
-        <v>3.53667</v>
+        <v>3.5180799999999999</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4624,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>3.1306400000000001</v>
+        <v>3.1229</v>
       </c>
       <c r="F184">
-        <v>3.0230000000000001</v>
+        <v>2.9736400000000001</v>
       </c>
       <c r="G184">
-        <v>3.5667399999999998</v>
+        <v>3.4271199999999999</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4647,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>2.2641900000000001</v>
+        <v>2.21475</v>
       </c>
       <c r="F185">
-        <v>6.0440100000000001</v>
+        <v>5.9919700000000002</v>
       </c>
       <c r="G185">
-        <v>5.06515</v>
+        <v>5.0253100000000002</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4670,13 +4670,13 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>5.3597799999999998</v>
+        <v>5.3456400000000004</v>
       </c>
       <c r="F186">
-        <v>6.1610899999999997</v>
+        <v>6.1615900000000003</v>
       </c>
       <c r="G186">
-        <v>4.3902999999999999</v>
+        <v>4.4810400000000001</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4693,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0.98016099999999995</v>
+        <v>1.03573</v>
       </c>
       <c r="F187">
-        <v>1.53651</v>
+        <v>1.6265499999999999</v>
       </c>
       <c r="G187">
-        <v>2.0865800000000001</v>
+        <v>2.16656</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4716,13 +4716,13 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>0.60158299999999998</v>
+        <v>0.59725300000000003</v>
       </c>
       <c r="F188">
-        <v>1.53833</v>
+        <v>1.5458099999999999</v>
       </c>
       <c r="G188">
-        <v>1.7151799999999999</v>
+        <v>1.8179700000000001</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4739,13 +4739,13 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>3.36002</v>
+        <v>3.4248599999999998</v>
       </c>
       <c r="F189">
-        <v>0.82845199999999997</v>
+        <v>0.89599099999999998</v>
       </c>
       <c r="G189">
-        <v>1.02942</v>
+        <v>1.1276900000000001</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4762,13 +4762,13 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>1.17493</v>
+        <v>1.20096</v>
       </c>
       <c r="F190">
-        <v>-4.8684999999999999E-2</v>
+        <v>-1.6706800000000001E-2</v>
       </c>
       <c r="G190">
-        <v>0.731738</v>
+        <v>0.77143200000000001</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -4785,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>2.5450200000000001</v>
+        <v>2.4390200000000002</v>
       </c>
       <c r="F191">
-        <v>1.9580900000000001</v>
+        <v>1.9238500000000001</v>
       </c>
       <c r="G191">
-        <v>0.97147899999999998</v>
+        <v>1.1165499999999999</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -4808,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>2.4013300000000002</v>
+        <v>2.2981400000000001</v>
       </c>
       <c r="F192">
-        <v>-3.3339699999999999</v>
+        <v>-3.4542799999999998</v>
       </c>
       <c r="G192">
-        <v>-1.0468599999999999</v>
+        <v>-1.0969800000000001</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -4831,13 +4831,13 @@
         <v>1</v>
       </c>
       <c r="E193">
-        <v>2.4301300000000001</v>
+        <v>2.5049899999999998</v>
       </c>
       <c r="F193">
-        <v>0.1414</v>
+        <v>0.15091199999999999</v>
       </c>
       <c r="G193">
-        <v>-0.36155500000000002</v>
+        <v>-0.33240199999999998</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -4854,13 +4854,13 @@
         <v>1</v>
       </c>
       <c r="E194">
-        <v>-1.6320300000000001</v>
+        <v>-1.71099</v>
       </c>
       <c r="F194">
-        <v>-0.15939900000000001</v>
+        <v>-0.24675900000000001</v>
       </c>
       <c r="G194">
-        <v>-0.19966300000000001</v>
+        <v>-0.108332</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -4877,13 +4877,13 @@
         <v>1</v>
       </c>
       <c r="E195">
-        <v>2.28349</v>
+        <v>2.37493</v>
       </c>
       <c r="F195">
-        <v>-0.78249199999999997</v>
+        <v>-0.72918700000000003</v>
       </c>
       <c r="G195">
-        <v>-1.23915</v>
+        <v>-1.1060399999999999</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -4900,13 +4900,13 @@
         <v>1</v>
       </c>
       <c r="E196">
-        <v>-2.11286</v>
+        <v>-2.1066600000000002</v>
       </c>
       <c r="F196">
-        <v>-0.50531400000000004</v>
+        <v>-0.46362900000000001</v>
       </c>
       <c r="G196">
-        <v>-2.9880200000000001</v>
+        <v>-2.6594799999999998</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,13 +4923,13 @@
         <v>1</v>
       </c>
       <c r="E197">
-        <v>-8.8302700000000005</v>
+        <v>-8.8522700000000007</v>
       </c>
       <c r="F197">
-        <v>-9.2118300000000009</v>
+        <v>-9.1928999999999998</v>
       </c>
       <c r="G197">
-        <v>-6.2750899999999996</v>
+        <v>-6.1264200000000004</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -4946,13 +4946,13 @@
         <v>1</v>
       </c>
       <c r="E198">
-        <v>-4.6894400000000003</v>
+        <v>-4.5657300000000003</v>
       </c>
       <c r="F198">
-        <v>-6.7835700000000001</v>
+        <v>-6.6538599999999999</v>
       </c>
       <c r="G198">
-        <v>-4.2798600000000002</v>
+        <v>-4.2896999999999998</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -4969,13 +4969,13 @@
         <v>1</v>
       </c>
       <c r="E199">
-        <v>-0.67744599999999999</v>
+        <v>-0.71728199999999998</v>
       </c>
       <c r="F199">
-        <v>1.39645</v>
+        <v>1.3905000000000001</v>
       </c>
       <c r="G199">
-        <v>0.36653200000000002</v>
+        <v>0.39799899999999999</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -4992,13 +4992,13 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>1.44313</v>
+        <v>1.40388</v>
       </c>
       <c r="F200">
-        <v>1.6261699999999999</v>
+        <v>1.64388</v>
       </c>
       <c r="G200">
-        <v>2.26145</v>
+        <v>2.2225799999999998</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5015,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>4.2515999999999998</v>
+        <v>4.3010999999999999</v>
       </c>
       <c r="F201">
-        <v>5.9854399999999996</v>
+        <v>6.15944</v>
       </c>
       <c r="G201">
-        <v>4.0653800000000002</v>
+        <v>4.1882299999999999</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5038,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>1.99512</v>
+        <v>1.93197</v>
       </c>
       <c r="F202">
-        <v>2.2957200000000002</v>
+        <v>2.1862200000000001</v>
       </c>
       <c r="G202">
-        <v>3.1779600000000001</v>
+        <v>3.1021700000000001</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5061,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>3.8504299999999998</v>
+        <v>3.8528899999999999</v>
       </c>
       <c r="F203">
-        <v>3.8523200000000002</v>
+        <v>3.8316699999999999</v>
       </c>
       <c r="G203">
-        <v>3.7135199999999999</v>
+        <v>3.6362199999999998</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5084,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>3.0818599999999998</v>
+        <v>3.0724100000000001</v>
       </c>
       <c r="F204">
-        <v>6.03714</v>
+        <v>5.9974699999999999</v>
       </c>
       <c r="G204">
-        <v>4.0046799999999996</v>
+        <v>4.1022999999999996</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5107,13 +5107,13 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>2.07267</v>
+        <v>2.0949900000000001</v>
       </c>
       <c r="F205">
-        <v>0.98172700000000002</v>
+        <v>1.0421499999999999</v>
       </c>
       <c r="G205">
-        <v>1.48454</v>
+        <v>1.53928</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5130,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>-0.96523199999999998</v>
+        <v>-0.95155199999999995</v>
       </c>
       <c r="F206">
-        <v>0.40115299999999998</v>
+        <v>0.44209199999999998</v>
       </c>
       <c r="G206">
-        <v>1.2824899999999999</v>
+        <v>1.2924</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5153,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>2.70235</v>
+        <v>2.6976399999999998</v>
       </c>
       <c r="F207">
-        <v>2.9304000000000001</v>
+        <v>2.9004599999999998</v>
       </c>
       <c r="G207">
-        <v>2.04359</v>
+        <v>2.0670000000000002</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5176,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>-0.15371299999999999</v>
+        <v>-8.9237499999999997E-2</v>
       </c>
       <c r="F208">
-        <v>0.87821700000000003</v>
+        <v>0.85528400000000004</v>
       </c>
       <c r="G208">
-        <v>2.1831200000000002</v>
+        <v>2.0978500000000002</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5199,13 +5199,13 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>4.4612800000000004</v>
+        <v>4.4678599999999999</v>
       </c>
       <c r="F209">
-        <v>3.7129300000000001</v>
+        <v>3.6674600000000002</v>
       </c>
       <c r="G209">
-        <v>3.75048</v>
+        <v>3.5444800000000001</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5222,13 +5222,13 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>3.25922</v>
+        <v>3.33975</v>
       </c>
       <c r="F210">
-        <v>8.3911700000000007</v>
+        <v>7.8933099999999996</v>
       </c>
       <c r="G210">
-        <v>5.0787899999999997</v>
+        <v>4.8981700000000004</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5245,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>1.8178700000000001</v>
+        <v>1.78102</v>
       </c>
       <c r="F211">
-        <v>1.5164299999999999</v>
+        <v>0.91993499999999995</v>
       </c>
       <c r="G211">
-        <v>1.73261</v>
+        <v>1.45173</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5268,13 +5268,13 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0.70076499999999997</v>
+        <v>0.57741600000000004</v>
       </c>
       <c r="F212">
-        <v>-3.01905</v>
+        <v>-3.4201000000000001</v>
       </c>
       <c r="G212">
-        <v>-0.12782199999999999</v>
+        <v>-0.501332</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5291,13 +5291,13 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>0.43704799999999999</v>
+        <v>0.46224799999999999</v>
       </c>
       <c r="F213">
-        <v>5.4291</v>
+        <v>5.6983199999999998</v>
       </c>
       <c r="G213">
-        <v>2.9332699999999998</v>
+        <v>3.24613</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5314,13 +5314,13 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>3.4574099999999999</v>
+        <v>3.9258099999999998</v>
       </c>
       <c r="F214">
-        <v>-0.23431199999999999</v>
+        <v>-3.1584500000000001E-2</v>
       </c>
       <c r="G214">
-        <v>1.0984100000000001</v>
+        <v>1.2578800000000001</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5337,13 +5337,13 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>0.55673899999999998</v>
+        <v>1.0697700000000001</v>
       </c>
       <c r="F215">
-        <v>2.59152</v>
+        <v>2.4135300000000002</v>
       </c>
       <c r="G215">
-        <v>1.98977</v>
+        <v>2.08514</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5360,13 +5360,13 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>3.1531600000000002</v>
+        <v>3.3916200000000001</v>
       </c>
       <c r="F216">
-        <v>0.242396</v>
+        <v>0.36760999999999999</v>
       </c>
       <c r="G216">
-        <v>1.3276399999999999</v>
+        <v>1.42624</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5383,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>2.8366099999999999</v>
+        <v>3.4696899999999999</v>
       </c>
       <c r="F217">
-        <v>2.5208300000000001</v>
+        <v>2.2966199999999999</v>
       </c>
       <c r="G217">
-        <v>1.94007</v>
+        <v>1.8955599999999999</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -5406,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>-1.4049799999999999</v>
+        <v>-1.3811500000000001</v>
       </c>
       <c r="F218">
-        <v>2.03328</v>
+        <v>2.6355400000000002</v>
       </c>
       <c r="G218">
-        <v>2.95932</v>
+        <v>3.1686800000000002</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5429,13 +5429,13 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>5.10473</v>
+        <v>5.1334499999999998</v>
       </c>
       <c r="F219">
-        <v>5.7370299999999999</v>
+        <v>5.5077800000000003</v>
       </c>
       <c r="G219">
-        <v>4.6157599999999999</v>
+        <v>4.6011199999999999</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -5452,13 +5452,13 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>4.6327499999999997</v>
+        <v>4.8316100000000004</v>
       </c>
       <c r="F220">
-        <v>4.6170999999999998</v>
+        <v>4.5685500000000001</v>
       </c>
       <c r="G220">
-        <v>3.9778699999999998</v>
+        <v>4.0253500000000004</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5475,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>1.7915099999999999</v>
+        <v>2.0180600000000002</v>
       </c>
       <c r="F221">
-        <v>3.23678</v>
+        <v>3.43154</v>
       </c>
       <c r="G221">
-        <v>3.1781000000000001</v>
+        <v>3.3908399999999999</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5498,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>3.23983</v>
+        <v>3.5860400000000001</v>
       </c>
       <c r="F222">
-        <v>2.4435500000000001</v>
+        <v>2.6761699999999999</v>
       </c>
       <c r="G222">
-        <v>2.3539099999999999</v>
+        <v>2.5857600000000001</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5521,13 +5521,13 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>2.3149700000000002</v>
+        <v>2.4695100000000001</v>
       </c>
       <c r="F223">
-        <v>1.3967799999999999</v>
+        <v>1.38541</v>
       </c>
       <c r="G223">
-        <v>1.4496500000000001</v>
+        <v>1.60633</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>1.29129</v>
+        <v>1.59832</v>
       </c>
       <c r="F224">
-        <v>0.47207300000000002</v>
+        <v>0.67082299999999995</v>
       </c>
       <c r="G224">
-        <v>0.81146300000000005</v>
+        <v>1.0166299999999999</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -5567,13 +5567,13 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>0.58453200000000005</v>
+        <v>0.73749100000000001</v>
       </c>
       <c r="F225">
-        <v>0.48510999999999999</v>
+        <v>0.79844099999999996</v>
       </c>
       <c r="G225">
-        <v>0.98726100000000006</v>
+        <v>1.20391</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -5590,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>2.35012</v>
+        <v>2.3117200000000002</v>
       </c>
       <c r="F226">
-        <v>2.3559600000000001</v>
+        <v>2.3921000000000001</v>
       </c>
       <c r="G226">
-        <v>1.3621099999999999</v>
+        <v>1.5838000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5613,13 +5613,13 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>1.20736</v>
+        <v>1.2820400000000001</v>
       </c>
       <c r="F227">
-        <v>-1.9619599999999999</v>
+        <v>-1.8838699999999999</v>
       </c>
       <c r="G227">
-        <v>0.14050099999999999</v>
+        <v>0.23538000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -5636,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>2.3970799999999999</v>
+        <v>2.82694</v>
       </c>
       <c r="F228">
-        <v>2.4301400000000002</v>
+        <v>2.62154</v>
       </c>
       <c r="G228">
-        <v>1.786</v>
+        <v>1.9836</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -5659,13 +5659,13 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>1.9832799999999999</v>
+        <v>2.21286</v>
       </c>
       <c r="F229">
-        <v>1.7709699999999999</v>
+        <v>1.9591099999999999</v>
       </c>
       <c r="G229">
-        <v>2.0032299999999998</v>
+        <v>2.1454499999999999</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -5682,13 +5682,13 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>1.71421</v>
+        <v>1.94095</v>
       </c>
       <c r="F230">
-        <v>3.1254599999999999</v>
+        <v>3.2474500000000002</v>
       </c>
       <c r="G230">
-        <v>2.6987000000000001</v>
+        <v>2.7789199999999998</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -5705,13 +5705,13 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>2.0095800000000001</v>
+        <v>2.2331300000000001</v>
       </c>
       <c r="F231">
-        <v>2.9865499999999998</v>
+        <v>2.45384</v>
       </c>
       <c r="G231">
-        <v>2.8541099999999999</v>
+        <v>2.6636500000000001</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -5728,13 +5728,13 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>3.2968700000000002</v>
+        <v>3.1434199999999999</v>
       </c>
       <c r="F232">
-        <v>1.9977400000000001</v>
+        <v>1.96292</v>
       </c>
       <c r="G232">
-        <v>2.6467399999999999</v>
+        <v>2.7257400000000001</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -5751,13 +5751,13 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>4.0024199999999999</v>
+        <v>4.48325</v>
       </c>
       <c r="F233">
-        <v>3.2284600000000001</v>
+        <v>4.2370799999999997</v>
       </c>
       <c r="G233">
-        <v>3.0119500000000001</v>
+        <v>3.5129000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -5774,13 +5774,13 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>2.7604799999999998</v>
+        <v>3.23997</v>
       </c>
       <c r="F234">
-        <v>3.4940600000000002</v>
+        <v>2.8997199999999999</v>
       </c>
       <c r="G234">
-        <v>2.9759099999999998</v>
+        <v>2.8853499999999999</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -5797,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>2.7803399999999998</v>
+        <v>2.1177000000000001</v>
       </c>
       <c r="F235">
-        <v>0.95919900000000002</v>
+        <v>2.40015</v>
       </c>
       <c r="G235">
-        <v>2.2213799999999999</v>
+        <v>2.6243599999999998</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -5820,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>2.8766799999999999</v>
+        <v>2.4874700000000001</v>
       </c>
       <c r="F236">
-        <v>5.1424300000000001</v>
+        <v>3.9144999999999999</v>
       </c>
       <c r="G236">
-        <v>3.3565299999999998</v>
+        <v>2.9152499999999999</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -5843,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>0.72662400000000005</v>
+        <v>0.56578099999999998</v>
       </c>
       <c r="F237">
-        <v>2.0119600000000002</v>
+        <v>1.6488400000000001</v>
       </c>
       <c r="G237">
-        <v>2.3111799999999998</v>
+        <v>2.2589000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -5866,13 +5866,13 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>2.16561</v>
+        <v>2.1669900000000002</v>
       </c>
       <c r="F238">
-        <v>1.9513799999999999</v>
+        <v>3.6325599999999998</v>
       </c>
       <c r="G238">
-        <v>2.0278299999999998</v>
+        <v>2.9558900000000001</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -5889,13 +5889,13 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>2.6837800000000001</v>
+        <v>3.3034599999999998</v>
       </c>
       <c r="F239">
-        <v>1.2187300000000001</v>
+        <v>0.91176599999999997</v>
       </c>
       <c r="G239">
-        <v>1.66557</v>
+        <v>1.9685600000000001</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -5912,13 +5912,13 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>3.5429200000000001</v>
+        <v>4.5041700000000002</v>
       </c>
       <c r="F240">
-        <v>1.55792</v>
+        <v>2.6204399999999999</v>
       </c>
       <c r="G240">
-        <v>1.2749600000000001</v>
+        <v>1.8769</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -5935,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="E241">
-        <v>1.7691300000000001</v>
+        <v>2.5569500000000001</v>
       </c>
       <c r="F241">
-        <v>3.51851</v>
+        <v>3.1389200000000002</v>
       </c>
       <c r="G241">
-        <v>-0.26501200000000003</v>
+        <v>-0.27439599999999997</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -5958,13 +5958,13 @@
         <v>1</v>
       </c>
       <c r="E242">
-        <v>-4.7281599999999999</v>
+        <v>-5.48827</v>
       </c>
       <c r="F242">
-        <v>-0.35854799999999998</v>
+        <v>-2.45126</v>
       </c>
       <c r="G242">
-        <v>-7.3915499999999996</v>
+        <v>-7.3475400000000004</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -5981,13 +5981,13 @@
         <v>1</v>
       </c>
       <c r="E243">
-        <v>-35.464799999999997</v>
+        <v>-32.880600000000001</v>
       </c>
       <c r="F243">
-        <v>-36.588299999999997</v>
+        <v>-36.332999999999998</v>
       </c>
       <c r="G243">
-        <v>-11.886900000000001</v>
+        <v>-12.3964</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6004,13 +6004,13 @@
         <v>0</v>
       </c>
       <c r="E244">
-        <v>30.245000000000001</v>
+        <v>29.892600000000002</v>
       </c>
       <c r="F244">
-        <v>21.371500000000001</v>
+        <v>25.372499999999999</v>
       </c>
       <c r="G244">
-        <v>10.0566</v>
+        <v>11.754200000000001</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6027,13 +6027,13 @@
         <v>0</v>
       </c>
       <c r="E245">
-        <v>3.8356499999999998</v>
+        <v>4.1187800000000001</v>
       </c>
       <c r="F245">
-        <v>15.892200000000001</v>
+        <v>14.2453</v>
       </c>
       <c r="G245">
-        <v>10.809699999999999</v>
+        <v>10.692299999999999</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6050,13 +6050,13 @@
         <v>0</v>
       </c>
       <c r="E246">
-        <v>6.1227499999999999</v>
+        <v>5.10907</v>
       </c>
       <c r="F246">
-        <v>1.9328099999999999</v>
+        <v>3.07193</v>
       </c>
       <c r="G246">
-        <v>4.7736999999999998</v>
+        <v>5.2787600000000001</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6073,13 +6073,13 @@
         <v>0</v>
       </c>
       <c r="E247">
-        <v>6.7699600000000002</v>
+        <v>6.0332100000000004</v>
       </c>
       <c r="F247">
-        <v>3.0208599999999999</v>
+        <v>4.5293599999999996</v>
       </c>
       <c r="G247">
-        <v>3.72119</v>
+        <v>4.4339399999999998</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6096,13 +6096,13 @@
         <v>0</v>
       </c>
       <c r="E248">
-        <v>2.6192899999999999</v>
+        <v>3.2454399999999999</v>
       </c>
       <c r="F248">
-        <v>4.4586199999999998</v>
+        <v>3.5340500000000001</v>
       </c>
       <c r="G248">
-        <v>4.4641400000000004</v>
+        <v>4.0949299999999997</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <v>6.7261699999999998</v>
+        <v>6.7298</v>
       </c>
       <c r="F249">
-        <v>6.4996400000000003</v>
+        <v>6.0013399999999999</v>
       </c>
       <c r="G249">
-        <v>3.9390999999999998</v>
+        <v>3.6636500000000001</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6142,13 +6142,13 @@
         <v>0</v>
       </c>
       <c r="E250">
-        <v>-1.6448700000000001</v>
+        <v>-1.99512</v>
       </c>
       <c r="F250">
-        <v>0.77505199999999996</v>
+        <v>0.46920600000000001</v>
       </c>
       <c r="G250">
-        <v>1.22062</v>
+        <v>1.14513</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -6165,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>-0.57861300000000004</v>
+        <v>-0.56528500000000004</v>
       </c>
       <c r="F251">
-        <v>-0.78897600000000001</v>
+        <v>0</v>
       </c>
       <c r="G251">
-        <v>0.58894500000000005</v>
+        <v>0.90167299999999995</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -6188,13 +6188,13 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <v>3.1920099999999998</v>
+        <v>2.6244800000000001</v>
       </c>
       <c r="F252">
-        <v>2.7180800000000001</v>
+        <v>2.6381800000000002</v>
       </c>
       <c r="G252">
-        <v>1.2645900000000001</v>
+        <v>1.5966499999999999</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -6211,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="E253">
-        <v>2.54094</v>
+        <v>2.5346199999999999</v>
       </c>
       <c r="F253">
-        <v>-3.3691200000000001</v>
+        <v>-3.0413700000000001</v>
       </c>
       <c r="G253">
-        <v>-1.1630199999999999</v>
+        <v>-0.61898600000000004</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -6234,13 +6234,13 @@
         <v>0</v>
       </c>
       <c r="E254">
-        <v>1.9829399999999999</v>
+        <v>2.21848</v>
       </c>
       <c r="F254">
-        <v>-1.8393600000000001</v>
+        <v>0.49110599999999999</v>
       </c>
       <c r="G254">
-        <v>-0.68154599999999999</v>
+        <v>0.72433499999999995</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -6257,13 +6257,33 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>2.0398700000000001</v>
+        <v>2.0407099999999998</v>
       </c>
       <c r="F255">
-        <v>0.49212299999999998</v>
+        <v>0.71359300000000003</v>
       </c>
       <c r="G255">
-        <v>0.599491</v>
+        <v>1.7264699999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2023</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>0.5</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>4.7624500000000003</v>
+      </c>
+      <c r="G256">
+        <v>3.2614100000000001</v>
       </c>
     </row>
   </sheetData>
